--- a/NKTR.xlsx
+++ b/NKTR.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B585BDEA-49E3-43FC-B331-3C645BA514AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8814CF4E-9AC3-43D9-B317-3FC86595E416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19545" yWindow="720" windowWidth="18705" windowHeight="17085" xr2:uid="{048D9041-BF95-41E8-9CA6-D36D43B09D4B}"/>
+    <workbookView xWindow="48740" yWindow="4080" windowWidth="18350" windowHeight="15420" activeTab="1" xr2:uid="{048D9041-BF95-41E8-9CA6-D36D43B09D4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="rezpegaldesleukin" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
   <si>
     <t>Price</t>
   </si>
@@ -56,15 +57,122 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q324</t>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>PIC</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>rezpegaldesleukin</t>
+  </si>
+  <si>
+    <t>Atopic Dermatitis</t>
+  </si>
+  <si>
+    <t>Indication</t>
+  </si>
+  <si>
+    <t>NKTR-0165</t>
+  </si>
+  <si>
+    <t>TNFR2 mab</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>NKTR-422</t>
+  </si>
+  <si>
+    <t>CSF-1</t>
+  </si>
+  <si>
+    <t>NKTR-255</t>
+  </si>
+  <si>
+    <t>R/R LBCL</t>
+  </si>
+  <si>
+    <t>Dupixent</t>
+  </si>
+  <si>
+    <t>EASI75</t>
+  </si>
+  <si>
+    <t>300mg q2w</t>
+  </si>
+  <si>
+    <t>300mg qw</t>
+  </si>
+  <si>
+    <t>Placebo</t>
+  </si>
+  <si>
+    <t>placebo</t>
+  </si>
+  <si>
+    <t>low dose</t>
+  </si>
+  <si>
+    <t>high dose</t>
+  </si>
+  <si>
+    <t>EASI50</t>
+  </si>
+  <si>
+    <t>EASI90</t>
+  </si>
+  <si>
+    <t>upadacitinib 15mg</t>
+  </si>
+  <si>
+    <t>upadacitinib 30mg</t>
+  </si>
+  <si>
+    <t>Mechanism</t>
+  </si>
+  <si>
+    <t>IL-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -79,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -87,19 +195,121 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -115,6 +325,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>188686</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>141515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>160784</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>128708</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BD50051-410F-A3D6-A056-187DE27CC5F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="511629" y="2855686"/>
+          <a:ext cx="11098174" cy="5734850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,75 +693,428 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C383C93A-44F7-42DD-9F92-0793DAC733A5}">
-  <dimension ref="H2:J7"/>
+  <dimension ref="B2:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H2" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="1">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="3" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H3" t="s">
+      <c r="I2" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="2">
-        <v>184.45828399999999</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="3">
+        <v>186.10355799999999</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H4" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>169.70162128000001</v>
-      </c>
-    </row>
-    <row r="5" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H5" t="s">
+        <v>143.29973966</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="2">
-        <f>30.109+214.386+4.537</f>
-        <v>249.03200000000001</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="I5" s="3">
+        <f>38.894+179.738+2.019</f>
+        <v>220.65100000000001</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H6" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="H6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H7" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>-79.330378719999999</v>
+        <v>-77.35126034000001</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3663.7719999999999</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3647.0920000000001</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" location="rezpegaldesleukin!A1" display="rezpegaldesleukin" xr:uid="{26FDBFF7-1639-4D31-A04E-A79F4FE885BD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18371860-057C-4C04-8A8A-655183CF7552}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="B15" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17">
+        <v>0.60099999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="B16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17">
+        <v>0.72899999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="B17" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="C21" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="C22" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="C23" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="15">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{EAE5E09E-6D7F-42DA-88EA-6DD7F47A4D46}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/NKTR.xlsx
+++ b/NKTR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8814CF4E-9AC3-43D9-B317-3FC86595E416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC499955-8CBD-42FF-A23D-9113A346E0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48740" yWindow="4080" windowWidth="18350" windowHeight="15420" activeTab="1" xr2:uid="{048D9041-BF95-41E8-9CA6-D36D43B09D4B}"/>
+    <workbookView xWindow="40690" yWindow="2210" windowWidth="23810" windowHeight="16130" activeTab="1" xr2:uid="{048D9041-BF95-41E8-9CA6-D36D43B09D4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -337,8 +337,8 @@
       <xdr:rowOff>141515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>160784</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>603094</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>128708</xdr:rowOff>
     </xdr:to>
@@ -696,7 +696,7 @@
   <dimension ref="B2:J10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>0.77</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1"/>
     </row>
@@ -736,7 +736,8 @@
         <v>1</v>
       </c>
       <c r="I3" s="3">
-        <v>186.10355799999999</v>
+        <f>186.103558/15</f>
+        <v>12.406903866666665</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>6</v>
@@ -755,7 +756,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>143.29973966</v>
+        <v>148.88284639999998</v>
       </c>
       <c r="J4" s="1"/>
     </row>
@@ -804,7 +805,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>-77.35126034000001</v>
+        <v>-71.768153600000034</v>
       </c>
       <c r="J7" s="1"/>
     </row>
@@ -848,13 +849,14 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C15" sqref="C15:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.90625" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
